--- a/results/mp/logistic/corona/confidence/84/stop-words-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,81 +40,75 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>falling</t>
   </si>
   <si>
-    <t>problem</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>shame</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>demand</t>
   </si>
   <si>
@@ -124,18 +118,15 @@
     <t>buying</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>corona</t>
   </si>
   <si>
@@ -157,123 +148,123 @@
     <t>great</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
+    <t>well</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>well</t>
+    <t>relief</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
+    <t>helping</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>give</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>keep</t>
   </si>
   <si>
     <t>check</t>
   </si>
   <si>
-    <t>keep</t>
-  </si>
-  <si>
     <t>shop</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
     <t>stay</t>
   </si>
   <si>
@@ -286,7 +277,13 @@
     <t>amp</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>grocery</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
 </sst>
 </file>
@@ -644,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -652,10 +649,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -713,13 +710,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8333333333333334</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -731,19 +728,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -755,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -763,13 +760,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -781,19 +778,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>0.9230769230769231</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -805,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -813,13 +810,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8253424657534246</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>241</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>241</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -831,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -855,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -863,13 +860,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8157894736842105</v>
+        <v>0.821917808219178</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -881,19 +878,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>0.8813559322033898</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -905,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -913,13 +910,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7941176470588235</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -931,19 +928,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -955,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -963,13 +960,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7931034482758621</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -981,19 +978,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>0.8611111111111112</v>
+        <v>0.85</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1005,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1013,13 +1010,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7307692307692307</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1031,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>0.837696335078534</v>
+        <v>0.8433420365535248</v>
       </c>
       <c r="L9">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M9">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1052,10 +1049,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1063,13 +1060,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7297297297297297</v>
+        <v>0.65</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1081,19 +1078,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>0.8359375</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1105,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1113,13 +1110,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.675</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1131,19 +1128,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>0.8301886792452831</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1155,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1163,13 +1160,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6666666666666666</v>
+        <v>0.625968992248062</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>323</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>323</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1181,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>193</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>0.8181818181818182</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L12">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1205,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1213,13 +1210,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6274509803921569</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="C13">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1231,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K13">
         <v>0.8048780487804879</v>
@@ -1263,13 +1260,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5925925925925926</v>
+        <v>0.5608465608465608</v>
       </c>
       <c r="C14">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D14">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1281,19 +1278,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>0.8</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="L14">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1305,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1313,13 +1310,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5897435897435898</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1334,16 +1331,16 @@
         <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>0.7931034482758621</v>
+        <v>0.7890625</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1355,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1363,13 +1360,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.576271186440678</v>
+        <v>0.5436241610738255</v>
       </c>
       <c r="C16">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1381,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K16">
-        <v>0.7906976744186046</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L16">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="M16">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1405,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1413,13 +1410,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5736434108527132</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="C17">
-        <v>296</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>296</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1431,19 +1428,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>0.7887323943661971</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1455,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1463,13 +1460,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5570469798657718</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C18">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1481,19 +1478,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K18">
-        <v>0.7872340425531915</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L18">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1505,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1513,13 +1510,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5384615384615384</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1531,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>0.7407407407407407</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1555,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1563,13 +1560,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5135135135135135</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1581,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>0.7222222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1613,13 +1610,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4642857142857143</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1631,19 +1628,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K21">
         <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1655,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1663,13 +1660,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4363636363636363</v>
+        <v>0.4</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1681,19 +1678,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K22">
-        <v>0.7083333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1705,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1713,13 +1710,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4266666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1731,19 +1728,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K23">
-        <v>0.7</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1755,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1763,13 +1760,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3636363636363636</v>
+        <v>0.2936507936507937</v>
       </c>
       <c r="C24">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="D24">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1781,19 +1778,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>49</v>
+        <v>178</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K24">
-        <v>0.6984126984126984</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L24">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1805,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1813,13 +1810,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3636363636363636</v>
+        <v>0.2625</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1831,19 +1828,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K25">
-        <v>0.6857142857142857</v>
+        <v>0.6875</v>
       </c>
       <c r="L25">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1855,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1863,13 +1860,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3555555555555556</v>
+        <v>0.2386058981233244</v>
       </c>
       <c r="C26">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="D26">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1881,19 +1878,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>58</v>
+        <v>284</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K26">
-        <v>0.6529411764705882</v>
+        <v>0.65</v>
       </c>
       <c r="L26">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M26">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1905,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1913,13 +1910,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2976190476190476</v>
+        <v>0.1266666666666667</v>
       </c>
       <c r="C27">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="D27">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1931,19 +1928,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>177</v>
+        <v>262</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K27">
-        <v>0.6474576271186441</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L27">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1955,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1963,49 +1960,49 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2332439678284182</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="C28">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K28">
-        <v>0.6386554621848739</v>
+        <v>0.6317991631799164</v>
       </c>
       <c r="L28">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M28">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N28">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2013,49 +2010,49 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1533333333333333</v>
+        <v>0.03754045307443366</v>
       </c>
       <c r="C29">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="D29">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>254</v>
+        <v>2974</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K29">
-        <v>0.6307692307692307</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L29">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="M29">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>24</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2063,37 +2060,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.07534246575342465</v>
+        <v>0.03630077787381158</v>
       </c>
       <c r="C30">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D30">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E30">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="F30">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>270</v>
+        <v>1115</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K30">
-        <v>0.6170212765957447</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L30">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M30">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2105,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2113,37 +2110,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05108225108225108</v>
+        <v>0.02172886159659896</v>
       </c>
       <c r="C31">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D31">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E31">
-        <v>0.09</v>
+        <v>0.36</v>
       </c>
       <c r="F31">
-        <v>0.91</v>
+        <v>0.64</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>1096</v>
+        <v>2071</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K31">
-        <v>0.6078431372549019</v>
+        <v>0.6</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M31">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2155,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2163,343 +2160,271 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03149350649350649</v>
+        <v>0.009689922480620155</v>
       </c>
       <c r="C32">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="D32">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E32">
+        <v>0.78</v>
+      </c>
+      <c r="F32">
         <v>0.22</v>
       </c>
-      <c r="F32">
-        <v>0.78</v>
-      </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>2983</v>
+        <v>3066</v>
       </c>
       <c r="J32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32">
+        <v>0.6</v>
+      </c>
+      <c r="L32">
+        <v>30</v>
+      </c>
+      <c r="M32">
+        <v>30</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="L33">
+        <v>30</v>
+      </c>
+      <c r="M33">
+        <v>30</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K34">
+        <v>0.5857142857142857</v>
+      </c>
+      <c r="L34">
+        <v>41</v>
+      </c>
+      <c r="M34">
+        <v>41</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K32">
-        <v>0.5777777777777777</v>
-      </c>
-      <c r="L32">
-        <v>26</v>
-      </c>
-      <c r="M32">
-        <v>26</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
+      <c r="K35">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="L35">
+        <v>24</v>
+      </c>
+      <c r="M35">
+        <v>24</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K36">
+        <v>0.5280898876404494</v>
+      </c>
+      <c r="L36">
+        <v>47</v>
+      </c>
+      <c r="M36">
+        <v>47</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37">
+        <v>0.4523809523809524</v>
+      </c>
+      <c r="L37">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.02644003777148253</v>
-      </c>
-      <c r="C33">
-        <v>56</v>
-      </c>
-      <c r="D33">
-        <v>81</v>
-      </c>
-      <c r="E33">
-        <v>0.31</v>
-      </c>
-      <c r="F33">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>2062</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K33">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L33">
-        <v>28</v>
-      </c>
-      <c r="M33">
-        <v>28</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.02570093457943925</v>
-      </c>
-      <c r="C34">
-        <v>22</v>
-      </c>
-      <c r="D34">
-        <v>33</v>
-      </c>
-      <c r="E34">
-        <v>0.33</v>
-      </c>
-      <c r="F34">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>834</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K34">
-        <v>0.5393258426966292</v>
-      </c>
-      <c r="L34">
-        <v>48</v>
-      </c>
-      <c r="M34">
-        <v>48</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
+      <c r="M37">
+        <v>19</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38">
+        <v>0.4383561643835616</v>
+      </c>
+      <c r="L38">
+        <v>32</v>
+      </c>
+      <c r="M38">
+        <v>32</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.01159047005795235</v>
-      </c>
-      <c r="C35">
-        <v>36</v>
-      </c>
-      <c r="D35">
-        <v>131</v>
-      </c>
-      <c r="E35">
-        <v>0.73</v>
-      </c>
-      <c r="F35">
-        <v>0.27</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>3070</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K35">
-        <v>0.5142857142857142</v>
-      </c>
-      <c r="L35">
-        <v>36</v>
-      </c>
-      <c r="M35">
-        <v>36</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K36">
-        <v>0.4523809523809524</v>
-      </c>
-      <c r="L36">
-        <v>19</v>
-      </c>
-      <c r="M36">
-        <v>19</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K37">
-        <v>0.4520547945205479</v>
-      </c>
-      <c r="L37">
-        <v>33</v>
-      </c>
-      <c r="M37">
-        <v>33</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K38">
-        <v>0.4210526315789473</v>
-      </c>
-      <c r="L38">
-        <v>24</v>
-      </c>
-      <c r="M38">
-        <v>24</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="K39">
-        <v>0.4137931034482759</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="L39">
         <v>24</v>
       </c>
       <c r="M39">
+        <v>24</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K40">
+        <v>0.4035087719298245</v>
+      </c>
+      <c r="L40">
+        <v>23</v>
+      </c>
+      <c r="M40">
+        <v>23</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K41">
+        <v>0.390625</v>
+      </c>
+      <c r="L41">
         <v>25</v>
       </c>
-      <c r="N39">
-        <v>0.96</v>
-      </c>
-      <c r="O39">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K40">
-        <v>0.390625</v>
-      </c>
-      <c r="L40">
+      <c r="M41">
         <v>25</v>
-      </c>
-      <c r="M40">
-        <v>25</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K41">
-        <v>0.360655737704918</v>
-      </c>
-      <c r="L41">
-        <v>22</v>
-      </c>
-      <c r="M41">
-        <v>22</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2514,18 +2439,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K42">
-        <v>0.3461538461538461</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L42">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M42">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2537,38 +2462,38 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K43">
-        <v>0.205607476635514</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="L43">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M43">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N43">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K44">
         <v>0.1935483870967742</v>
@@ -2592,61 +2517,61 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K45">
-        <v>0.1243243243243243</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L45">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M45">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K46">
-        <v>0.1226993865030675</v>
+        <v>0.1358695652173913</v>
       </c>
       <c r="L46">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M46">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K47">
         <v>0.1071428571428571</v>
@@ -2670,186 +2595,212 @@
         <v>275</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K48">
-        <v>0.08433734939759036</v>
+        <v>0.07932692307692307</v>
       </c>
       <c r="L48">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M48">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N48">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K49">
-        <v>0.07958477508650519</v>
+        <v>0.06968641114982578</v>
       </c>
       <c r="L49">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K50">
-        <v>0.06876790830945559</v>
+        <v>0.05491329479768786</v>
       </c>
       <c r="L50">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M50">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="K51">
-        <v>0.03001579778830964</v>
+        <v>0.03605015673981191</v>
       </c>
       <c r="L51">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="M51">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="N51">
-        <v>0.73</v>
+        <v>0.66</v>
       </c>
       <c r="O51">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>3070</v>
+        <v>615</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="K52">
-        <v>0.03</v>
+        <v>0.03311258278145696</v>
       </c>
       <c r="L52">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="M52">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="N52">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="O52">
-        <v>0.04000000000000004</v>
+        <v>0.22</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>873</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="K53">
-        <v>0.01197891710589363</v>
+        <v>0.02669632925472748</v>
       </c>
       <c r="L53">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M53">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="N53">
-        <v>0.31</v>
+        <v>0.92</v>
       </c>
       <c r="O53">
-        <v>0.6899999999999999</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>2062</v>
+        <v>875</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="K54">
-        <v>0.008970099667774087</v>
+        <v>0.0198744769874477</v>
       </c>
       <c r="L54">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M54">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="N54">
-        <v>0.22</v>
+        <v>0.61</v>
       </c>
       <c r="O54">
-        <v>0.78</v>
+        <v>0.39</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>2983</v>
+        <v>937</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K55">
+        <v>0.01239866475917978</v>
+      </c>
+      <c r="L55">
+        <v>26</v>
+      </c>
+      <c r="M55">
+        <v>72</v>
+      </c>
+      <c r="N55">
+        <v>0.36</v>
+      </c>
+      <c r="O55">
+        <v>0.64</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>2071</v>
       </c>
     </row>
   </sheetData>
